--- a/data/trans_dic/BARTHEL_R3-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R3-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3839839268965385</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5712386584439281</v>
+        <v>0.571238658443928</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2310921411579708</v>
@@ -697,7 +697,7 @@
         <v>0.3155609224216123</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5143068039784648</v>
+        <v>0.5143068039784647</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1350896250322691</v>
+        <v>0.1406029711506177</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1816059271726844</v>
+        <v>0.1811895389896582</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1525799384601079</v>
+        <v>0.1544984405366246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3030424520634533</v>
+        <v>0.2975140532278584</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1988870474129439</v>
+        <v>0.1993834434179435</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3036379800565543</v>
+        <v>0.3080879390985763</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3263117694128886</v>
+        <v>0.3227741724875648</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5062406705314475</v>
+        <v>0.5065251704924024</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.191029264893136</v>
+        <v>0.1910926434412213</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2732720062855654</v>
+        <v>0.2742434449741195</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2691418173693453</v>
+        <v>0.2723443395912204</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.460220562669506</v>
+        <v>0.4637667024809907</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2698558989103615</v>
+        <v>0.2709721330334595</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3341100403057886</v>
+        <v>0.3418509113321865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2721728566814591</v>
+        <v>0.2802371284178818</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5023967509367234</v>
+        <v>0.4945867193531069</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2989574293988124</v>
+        <v>0.3012832611954885</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4359849110236224</v>
+        <v>0.4364426874293165</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4523214451041399</v>
+        <v>0.448589003844564</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6241568203003667</v>
+        <v>0.630855007919682</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2754791863353045</v>
+        <v>0.2767600650854074</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3762854346299835</v>
+        <v>0.3745618710757634</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3636479582583199</v>
+        <v>0.3655045897073838</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.569343866172786</v>
+        <v>0.5714714418074356</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1464560031782488</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2334980750672118</v>
+        <v>0.2334980750672119</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1905989922613585</v>
@@ -821,7 +821,7 @@
         <v>0.2906839766048103</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3898875760011153</v>
+        <v>0.3898875760011155</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1624685064562123</v>
@@ -833,7 +833,7 @@
         <v>0.2279942414517274</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3273248989286018</v>
+        <v>0.3273248989286017</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0836830159783522</v>
+        <v>0.0870493854384964</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1315194388248372</v>
+        <v>0.1362879634006081</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1056246701546208</v>
+        <v>0.09769173957964897</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1878593378969629</v>
+        <v>0.1878929438803667</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1343633815291943</v>
+        <v>0.1376851888849265</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.269316458013034</v>
+        <v>0.2747049704783022</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2295625928116901</v>
+        <v>0.2276826840390832</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3475668034432111</v>
+        <v>0.3461201525107183</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.125555809093906</v>
+        <v>0.1285326254248782</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2306257767082637</v>
+        <v>0.2340194844715271</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1861391872173122</v>
+        <v>0.1895863161816031</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2976729051285889</v>
+        <v>0.2938865348822839</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.183067580344526</v>
+        <v>0.1846372929175289</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.265177526222272</v>
+        <v>0.2690070395977427</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2060112766402338</v>
+        <v>0.1998533164557008</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2880236089792958</v>
+        <v>0.2884773225205145</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2504166304248806</v>
+        <v>0.251834003055697</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3954078903829013</v>
+        <v>0.3989886915626469</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3638459677176719</v>
+        <v>0.3641668154000083</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4335491014493035</v>
+        <v>0.4308446868458758</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2005751113681033</v>
+        <v>0.2036794306759436</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3206662415231592</v>
+        <v>0.3202805775585322</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2707258697812203</v>
+        <v>0.2770011198044221</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3605638300015302</v>
+        <v>0.3571740910433898</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2804991259736105</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3163159208895406</v>
+        <v>0.3163159208895407</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1303879401242229</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05953869399089195</v>
+        <v>0.06117451815072553</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09264114722533828</v>
+        <v>0.09725838813329957</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08346156737568275</v>
+        <v>0.08350861143006078</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1130314734748084</v>
+        <v>0.1101976434521044</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1024011550688502</v>
+        <v>0.1069642532869208</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1865741409109802</v>
+        <v>0.1790931604706912</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2109186267307296</v>
+        <v>0.2081626253709684</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2729024659768609</v>
+        <v>0.274270691709375</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09510689921907833</v>
+        <v>0.09228610903732271</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1528091143702393</v>
+        <v>0.1521693183716038</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.164048269173385</v>
+        <v>0.1681273975495013</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2012050894271051</v>
+        <v>0.2025185253648878</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.156769922912466</v>
+        <v>0.1618432632289708</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2120636347918727</v>
+        <v>0.211357323179606</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1946197684883271</v>
+        <v>0.1873447258358144</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1889623416332073</v>
+        <v>0.1845282028210402</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2290291633829694</v>
+        <v>0.2354014370191347</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3174725807958026</v>
+        <v>0.3155486853584668</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.363592492750293</v>
+        <v>0.3635658745208983</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3620566466370195</v>
+        <v>0.3637923897262475</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1803863333139388</v>
+        <v>0.1721997064822167</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2421433205879642</v>
+        <v>0.2459663250423038</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.259681675579171</v>
+        <v>0.2606441481524542</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2593437652265613</v>
+        <v>0.2632637832265677</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01657118529860074</v>
+        <v>0.01675526378002602</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07938919568832849</v>
+        <v>0.08437738930124655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1435391434331439</v>
+        <v>0.1338024182217035</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1657386352780374</v>
+        <v>0.1652609858027514</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.061740167325991</v>
+        <v>0.05824497618343454</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.197494023475892</v>
+        <v>0.1905101975360523</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1410248672010208</v>
+        <v>0.1323510200528236</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.237986782569522</v>
+        <v>0.2387766458199826</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05071119631932101</v>
+        <v>0.05177562982694026</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1642657542850252</v>
+        <v>0.1641898486165486</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1579043154342172</v>
+        <v>0.1613097075822753</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.213061545902198</v>
+        <v>0.2160191585248656</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1494571388935155</v>
+        <v>0.1326254982595175</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2853033098808473</v>
+        <v>0.2742390805247302</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3204132429390826</v>
+        <v>0.2984776498028252</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2613762738532554</v>
+        <v>0.2621696468643157</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3031132384519324</v>
+        <v>0.3117119944660312</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3952053390105481</v>
+        <v>0.3963693987610857</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3172278846042645</v>
+        <v>0.3138619587149089</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3287100093473007</v>
+        <v>0.3314733980330123</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1778837101338699</v>
+        <v>0.1749233441426877</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.301895488333272</v>
+        <v>0.3065911570259687</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.282341251875443</v>
+        <v>0.2794442468838483</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2816678909585817</v>
+        <v>0.2852078691540739</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3097573488132306</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3739864306498392</v>
+        <v>0.3739864306498391</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1738075961361671</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1051621154409357</v>
+        <v>0.1040756561737637</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1539851760976872</v>
+        <v>0.1540427332468544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.141580292394085</v>
+        <v>0.1395836377718462</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1877158598314786</v>
+        <v>0.1891978786435002</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1748697760790882</v>
+        <v>0.1748622523462477</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2809112961960977</v>
+        <v>0.2820984984677283</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2723556769764058</v>
+        <v>0.2762236838345458</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3498188744691929</v>
+        <v>0.3505750024732031</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1530096651234935</v>
+        <v>0.1532270734248523</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2366037928093482</v>
+        <v>0.2363174464984231</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2254964922441916</v>
+        <v>0.2273908453902957</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2847468699160193</v>
+        <v>0.2831918146602987</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1630630715753057</v>
+        <v>0.166270864737661</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2278423668336025</v>
+        <v>0.2257018965397992</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2003191236430807</v>
+        <v>0.2003895807581297</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2404760271738865</v>
+        <v>0.2401344955545571</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2379806308274077</v>
+        <v>0.2383048936697265</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3527365489050864</v>
+        <v>0.3503404487412939</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3486879467423911</v>
+        <v>0.3488383902618152</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3984448391389031</v>
+        <v>0.398667811768411</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1957714491250091</v>
+        <v>0.1966781277405213</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2893600212452804</v>
+        <v>0.289795202706952</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2731410999244983</v>
+        <v>0.2757016017453401</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3200792800844077</v>
+        <v>0.3217245338631682</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17425</v>
+        <v>18137</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>24977</v>
+        <v>24920</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25398</v>
+        <v>25717</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20084</v>
+        <v>19717</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>54139</v>
+        <v>54275</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>65475</v>
+        <v>66434</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>84964</v>
+        <v>84043</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>71607</v>
+        <v>71647</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>76642</v>
+        <v>76667</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>96511</v>
+        <v>96854</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>114878</v>
+        <v>116245</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>95597</v>
+        <v>96334</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>34809</v>
+        <v>34953</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45951</v>
+        <v>47016</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45304</v>
+        <v>46647</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33295</v>
+        <v>32778</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>81380</v>
+        <v>82013</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>94013</v>
+        <v>94112</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>117775</v>
+        <v>116803</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>88286</v>
+        <v>89234</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>110523</v>
+        <v>111037</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>132892</v>
+        <v>132283</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>155217</v>
+        <v>156009</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>118265</v>
+        <v>118707</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13603</v>
+        <v>14150</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22683</v>
+        <v>23506</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17931</v>
+        <v>16584</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>37723</v>
+        <v>37729</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>27356</v>
+        <v>28032</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>66539</v>
+        <v>67871</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>50689</v>
+        <v>50273</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>104669</v>
+        <v>104234</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>45973</v>
+        <v>47063</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>96756</v>
+        <v>98180</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>72700</v>
+        <v>74046</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>149417</v>
+        <v>147517</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>29759</v>
+        <v>30014</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45735</v>
+        <v>46396</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>34973</v>
+        <v>33928</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>57836</v>
+        <v>57927</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>50984</v>
+        <v>51273</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>97692</v>
+        <v>98577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>80339</v>
+        <v>80410</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>130563</v>
+        <v>129748</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>73441</v>
+        <v>74578</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>134531</v>
+        <v>134369</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>105737</v>
+        <v>108188</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>180985</v>
+        <v>179284</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8628</v>
+        <v>8865</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15400</v>
+        <v>16168</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13001</v>
+        <v>13008</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>25920</v>
+        <v>25270</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14957</v>
+        <v>15624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>35835</v>
+        <v>34399</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>38831</v>
+        <v>38324</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>64215</v>
+        <v>64537</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>27675</v>
+        <v>26854</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>54752</v>
+        <v>54523</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>55756</v>
+        <v>57143</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>93484</v>
+        <v>94094</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22718</v>
+        <v>23454</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35252</v>
+        <v>35135</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30316</v>
+        <v>29183</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>43332</v>
+        <v>42315</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33454</v>
+        <v>34384</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>60977</v>
+        <v>60608</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>66940</v>
+        <v>66935</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>85194</v>
+        <v>85602</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>52490</v>
+        <v>50107</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>86761</v>
+        <v>88131</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>88260</v>
+        <v>88587</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>120496</v>
+        <v>122317</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6200</v>
+        <v>6590</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12624</v>
+        <v>11767</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>35169</v>
+        <v>35067</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2422</v>
+        <v>2285</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>16797</v>
+        <v>16203</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15024</v>
+        <v>14100</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>49054</v>
+        <v>49217</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4492</v>
+        <v>4586</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>26799</v>
+        <v>26787</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>30709</v>
+        <v>31372</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>89127</v>
+        <v>90364</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7375</v>
+        <v>6544</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22281</v>
+        <v>21417</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>28179</v>
+        <v>26250</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>55462</v>
+        <v>55631</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11893</v>
+        <v>12230</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>33612</v>
+        <v>33711</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>33796</v>
+        <v>33438</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>67754</v>
+        <v>68324</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15756</v>
+        <v>15494</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>49253</v>
+        <v>50019</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>54910</v>
+        <v>54347</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>117826</v>
+        <v>119307</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>51088</v>
+        <v>50560</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>85359</v>
+        <v>85391</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>82107</v>
+        <v>80949</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>133012</v>
+        <v>134062</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>115609</v>
+        <v>115604</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>207824</v>
+        <v>208702</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>210211</v>
+        <v>213196</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>309248</v>
+        <v>309917</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>175489</v>
+        <v>175739</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>306202</v>
+        <v>305831</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>304817</v>
+        <v>307377</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>453490</v>
+        <v>451013</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>79217</v>
+        <v>80775</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>126301</v>
+        <v>125114</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>116172</v>
+        <v>116213</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>170397</v>
+        <v>170155</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>157332</v>
+        <v>157546</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>260962</v>
+        <v>259189</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>269126</v>
+        <v>269242</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>352235</v>
+        <v>352432</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>224533</v>
+        <v>225573</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>374477</v>
+        <v>375040</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>369221</v>
+        <v>372682</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>509761</v>
+        <v>512381</v>
       </c>
     </row>
     <row r="24">
